--- a/doc/ue_new.xlsx
+++ b/doc/ue_new.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A355F-79DF-4C95-9494-B5E7E02C8528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>#define DECLARE_CLASS( TClass, TSuperClass, TStaticFlags, TStaticCastFlags, TPackage, TRequiredAPI  ) \</t>
   </si>
@@ -127,13 +128,73 @@
   </si>
   <si>
     <t>真实的new</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写了new和delete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new  ( size_t Size, std::align_val_t Alignment                        ) OPERATOR_NEW_THROW_SPEC      { return FMemory::Malloc( Size ? Size : 1, (std::size_t)Alignment ); } \</t>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new[]( size_t Size, std::align_val_t Alignment                        ) OPERATOR_NEW_THROW_SPEC      { return FMemory::Malloc( Size ? Size : 1, (std::size_t)Alignment ); } \</t>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new  ( size_t Size, std::align_val_t Alignment, const std::nothrow_t&amp; ) OPERATOR_NEW_NOTHROW_SPEC    { return FMemory::Malloc( Size ? Size : 1, (std::size_t)Alignment ); } \</t>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new[]( size_t Size, std::align_val_t Alignment, const std::nothrow_t&amp; ) OPERATOR_NEW_NOTHROW_SPEC    { return FMemory::Malloc( Size ? Size : 1, (std::size_t)Alignment ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr,                          std::align_val_t Alignment                        ) OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr,                          std::align_val_t Alignment                        ) OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr,                          std::align_val_t Alignment, const std::nothrow_t&amp; ) OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr,                          std::align_val_t Alignment, const std::nothrow_t&amp; ) OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr,             size_t Size, std::align_val_t Alignment                        ) OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr,             size_t Size, std::align_val_t Alignment                        ) OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr,             size_t Size, std::align_val_t Alignment, const std::nothrow_t&amp; ) OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr,             size_t Size, std::align_val_t Alignment, const std::nothrow_t&amp; ) OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); }</t>
+  </si>
+  <si>
+    <t>所有new XXXX类的时候，基于这个重写的new处理，必须包含这个头文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleBoilerplate.h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的auto p = new AAA();都会被重写了new</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题排查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogMemory: Warning: Attempting to free a pointer we didn't allocate!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,4 +746,131 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_new.xlsx
+++ b/doc/ue_new.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06FCB9-CDC4-492E-B385-08968B8C6D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -850,10 +851,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_new.xlsx
+++ b/doc/ue_new.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06FCB9-CDC4-492E-B385-08968B8C6D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D771E94-F715-4FBC-8AF5-7D98DCF65BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="重载new-delete" sheetId="4" r:id="rId4"/>
+    <sheet name="宏定义" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>#define DECLARE_CLASS( TClass, TSuperClass, TStaticFlags, TStaticCastFlags, TPackage, TRequiredAPI  ) \</t>
   </si>
@@ -190,6 +192,158 @@
   <si>
     <t>LogMemory: Warning: Attempting to free a pointer we didn't allocate!</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认重载了new/delete，这样子STL也被HOOK了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if !FORCE_ANSI_ALLOCATOR</t>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new  ( size_t Size                        ) OPERATOR_NEW_THROW_SPEC      { return FMemory::Malloc( Size ? Size : 1 ); } \</t>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new[]( size_t Size                        ) OPERATOR_NEW_THROW_SPEC      { return FMemory::Malloc( Size ? Size : 1 ); } \</t>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new  ( size_t Size, const std::nothrow_t&amp; ) OPERATOR_NEW_NOTHROW_SPEC    { return FMemory::Malloc( Size ? Size : 1 ); } \</t>
+  </si>
+  <si>
+    <t>OPERATOR_NEW_MSVC_PRAGMA void* operator new[]( size_t Size, const std::nothrow_t&amp; ) OPERATOR_NEW_NOTHROW_SPEC    { return FMemory::Malloc( Size ? Size : 1 ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr )                                                 OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr )                                                 OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr, const std::nothrow_t&amp; )                          OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr, const std::nothrow_t&amp; )                          OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr, size_t Size )                                    OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr, size_t Size )                                    OPERATOR_DELETE_THROW_SPEC   { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete  ( void* Ptr, size_t Size, const std::nothrow_t&amp; )             OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>void operator delete[]( void* Ptr, size_t Size, const std::nothrow_t&amp; )             OPERATOR_DELETE_NOTHROW_SPEC { FMemory::Free( Ptr ); } \</t>
+  </si>
+  <si>
+    <t>REPLACEMENT_OPERATOR_ALIGNED_NEW_AND_DELETE</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>#define REPLACEMENT_OPERATOR_NEW_AND_DELETE</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>！！！使用了OPERATOR_NEW_MSVC_PRAGMA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>// in DLL builds, these are done per-module, otherwise we just need one in the application</t>
+  </si>
+  <si>
+    <t>// visual studio cannot find cross dll data for visualizers, so these provide access</t>
+  </si>
+  <si>
+    <t>#define PER_MODULE_BOILERPLATE \</t>
+  </si>
+  <si>
+    <t>UE4_VISUALIZERS_HELPERS \</t>
+  </si>
+  <si>
+    <t>REPLACEMENT_OPERATOR_NEW_AND_DELETE</t>
+  </si>
+  <si>
+    <t>#define IMPLEMENT_MODULE( ModuleImplClass, ModuleName ) \</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>/**/ \</t>
+  </si>
+  <si>
+    <t>/* InitializeModule function, called by module manager after this module's DLL has been loaded */ \</t>
+  </si>
+  <si>
+    <t>/* @return</t>
+  </si>
+  <si>
+    <t>Returns an instance of this module */ \</t>
+  </si>
+  <si>
+    <t>extern "C" DLLEXPORT IModuleInterface* InitializeModule() \</t>
+  </si>
+  <si>
+    <t>return new ModuleImplClass(); \</t>
+  </si>
+  <si>
+    <t>/* Forced reference to this function is added by the linker to check that each module uses IMPLEMENT_MODULE */ \</t>
+  </si>
+  <si>
+    <t>extern "C" void IMPLEMENT_MODULE_##ModuleName() { } \</t>
+  </si>
+  <si>
+    <t>PER_MODULE_BOILERPLATE \</t>
+  </si>
+  <si>
+    <t>PER_MODULE_BOILERPLATE_ANYLINK(ModuleImplClass, ModuleName)</t>
+  </si>
+  <si>
+    <t>#define IMPLEMENT_GAME_MODULE( ModuleImplClass, ModuleName ) \</t>
+  </si>
+  <si>
+    <t>IMPLEMENT_MODULE( ModuleImplClass, ModuleName )</t>
+  </si>
+  <si>
+    <t>#define IMPLEMENT_PRIMARY_GAME_MODULE( ModuleImplClass, ModuleName, GameName ) \</t>
+  </si>
+  <si>
+    <t>/* Nothing special to do for modular builds.  The game name will be set via the command-line */ \</t>
+  </si>
+  <si>
+    <t>IMPLEMENT_TARGET_NAME_REGISTRATION() \</t>
+  </si>
+  <si>
+    <t>IMPLEMENT_GAME_MODULE( ModuleImplClass, ModuleName )</t>
+  </si>
+  <si>
+    <t>IMPLEMENT_PRIMARY_GAME_MODULE( FDefaultGameModuleImpl, UE4_Test001, "UE4_Test001" );</t>
+  </si>
+  <si>
+    <t>应用程序的MODULE定义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载定义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define REPLACEMENT_OPERATOR_NEW_AND_DELETE \</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleBoilerplate.h</t>
+  </si>
+  <si>
+    <t>#ifndef FORCE_ANSI_ALLOCATOR</t>
+  </si>
+  <si>
+    <t>#define FORCE_ANSI_ALLOCATOR 0</t>
   </si>
 </sst>
 </file>
@@ -534,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -874,4 +1028,309 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F26B109-5BF1-48AF-90C4-451CE9139ED4}">
+  <dimension ref="B1:V56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8679CDE9-705B-4E3F-9A1E-E745C4211F8A}">
+  <dimension ref="C5:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_new.xlsx
+++ b/doc/ue_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D771E94-F715-4FBC-8AF5-7D98DCF65BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F5829-156D-4CAC-85B4-2B83B52E02AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="重载new-delete" sheetId="4" r:id="rId4"/>
     <sheet name="宏定义" sheetId="5" r:id="rId5"/>
+    <sheet name="扩展的各种malloc实现" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="138">
   <si>
     <t>#define DECLARE_CLASS( TClass, TSuperClass, TStaticFlags, TStaticCastFlags, TPackage, TRequiredAPI  ) \</t>
   </si>
@@ -344,6 +345,126 @@
   </si>
   <si>
     <t>#define FORCE_ANSI_ALLOCATOR 0</t>
+  </si>
+  <si>
+    <t>FMEMORY_INLINE_FUNCTION_DECORATOR void* FMemory::Malloc(SIZE_T Count, uint32 Alignment)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>void* Ptr;</t>
+  </si>
+  <si>
+    <t>if (!FMEMORY_INLINE_GMalloc)</t>
+  </si>
+  <si>
+    <t>Ptr = MallocExternal(Count, Alignment);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>DoGamethreadHook(0);</t>
+  </si>
+  <si>
+    <t>FScopedMallocTimer Timer(0);</t>
+  </si>
+  <si>
+    <t>Ptr = FMEMORY_INLINE_GMalloc-&gt;Malloc(Count, Alignment);</t>
+  </si>
+  <si>
+    <t>// optional tracking of every allocation</t>
+  </si>
+  <si>
+    <t>LLM_IF_ENABLED(FLowLevelMemTracker::Get().OnLowLevelAlloc(ELLMTracker::Default, Ptr, Count, ELLMTag::Untagged, ELLMAllocType::FMalloc));</t>
+  </si>
+  <si>
+    <t>return Ptr;</t>
+  </si>
+  <si>
+    <t>UE系统实现了各种的malloc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FStatsMallocProfilerProxy : public FMalloc</t>
+  </si>
+  <si>
+    <t>各种不同的malloc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class CORE_API FMallocProfiler : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMacMallocZone : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FIOSMallocZone : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocThreadSafeProxy : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocTBB final	: public Fmalloc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FMallocStomp final : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocReplayProxy : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocPoisonProxy : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocMimalloc final: public Fmalloc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FMallocJemalloc	: public Fmalloc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FMallocDebug : public FMalloc</t>
+  </si>
+  <si>
+    <t>class CORE_API FMallocCallstackHandler : public FMalloc</t>
+  </si>
+  <si>
+    <t>class CORE_API FMallocBinnedGPU final : public FMalloc</t>
+  </si>
+  <si>
+    <t>class CORE_API FMallocBinned3 : public FMalloc</t>
+  </si>
+  <si>
+    <t>class CORE_API FMallocBinned2 : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocBinned : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocAnsi final	: public Fmalloc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct FGenericStackBasedMallocCrash : public FMalloc</t>
+  </si>
+  <si>
+    <t>struct FGenericPlatformMallocCrash final : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocLinked : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocPurgatoryProxy : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocVerifyProxy : public FMalloc</t>
+  </si>
+  <si>
+    <t>class FMallocLeakDetectionProxy : public FMalloc</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8679CDE9-705B-4E3F-9A1E-E745C4211F8A}">
   <dimension ref="C5:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1333,4 +1454,236 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9744436B-9A38-4135-8EF2-8B8159E004D9}">
+  <dimension ref="B2:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>